--- a/Tables/Table 1.xlsx
+++ b/Tables/Table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1406776_live_warwick_ac_uk/Documents/Desktop/grassland_depth/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u2070009_live_warwick_ac_uk/Documents/Documents/Viral_soil_depth/viral_soil_Depth_analysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{1D700AF3-520D-2D42-91F2-548689693667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A4F877-A741-8B4F-927C-0BFAADC16786}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{1D700AF3-520D-2D42-91F2-548689693667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6ADBDAB-F740-1649-8C13-2107994B6ADA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FBF3C6D1-01C1-4446-96D0-EBA26DE78ED6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{FBF3C6D1-01C1-4446-96D0-EBA26DE78ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Number of viral genes</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Carbohydrate-binding molecule</t>
-  </si>
-  <si>
-    <t>Table 1 - Summary of carbohydrate-active enzyme identification</t>
   </si>
   <si>
     <t>Enzyme class</t>
@@ -102,8 +99,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -127,198 +132,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84DCA22-811E-E842-8D6E-E8E29FEC69E4}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,139 +481,131 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="E3" s="6">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17">
-        <v>17</v>
-      </c>
-      <c r="E4" s="17">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22"/>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>